--- a/CourseAssignment&Using.xlsx
+++ b/CourseAssignment&Using.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="15180" windowHeight="7815"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Users" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>S1</t>
   </si>
@@ -147,12 +147,15 @@
   <si>
     <t>Notes/ExternalLink/Other Resourses</t>
   </si>
+  <si>
+    <t>fsdafsdfasdfds</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,7 +384,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -416,7 +418,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -592,14 +593,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -613,12 +614,12 @@
     <col min="10" max="10" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -626,12 +627,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -639,12 +640,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -667,7 +668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -690,12 +691,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -718,12 +719,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -755,7 +756,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
+      <c r="F37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -763,7 +769,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -780,7 +786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -797,12 +803,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="D47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="D48" t="s">
         <v>42</v>
       </c>
@@ -813,7 +819,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:6">
       <c r="D49" t="s">
         <v>35</v>
       </c>

--- a/CourseAssignment&Using.xlsx
+++ b/CourseAssignment&Using.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="15180" windowHeight="7815"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Users" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>S1</t>
   </si>
@@ -147,15 +147,12 @@
   <si>
     <t>Notes/ExternalLink/Other Resourses</t>
   </si>
-  <si>
-    <t>fsdafsdfasdfds</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +381,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -418,6 +416,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -593,14 +592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -614,12 +613,12 @@
     <col min="10" max="10" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -627,12 +626,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -640,12 +639,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -668,7 +667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -691,12 +690,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -719,12 +718,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -756,12 +755,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="F37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -769,7 +763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -786,7 +780,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -803,12 +797,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>42</v>
       </c>
@@ -819,7 +813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="4:6">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>35</v>
       </c>
